--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220518_110201.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220518_110201.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="257">
   <si>
     <t>사이트</t>
   </si>
@@ -2545,6 +2545,12 @@
       <c r="F54" t="s">
         <v>189</v>
       </c>
+      <c r="G54" t="s">
+        <v>235</v>
+      </c>
+      <c r="H54" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220518_110201.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220518_110201.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="256">
   <si>
     <t>사이트</t>
   </si>
@@ -731,9 +731,6 @@
   </si>
   <si>
     <t>해외</t>
-  </si>
-  <si>
-    <t>개인</t>
   </si>
   <si>
     <t>NEXTAR</t>
@@ -2078,7 +2075,7 @@
         <v>181</v>
       </c>
       <c r="G36" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H36" t="s">
         <v>235</v>
@@ -2130,7 +2127,7 @@
         <v>182</v>
       </c>
       <c r="G38" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H38" t="s">
         <v>235</v>
@@ -2208,7 +2205,7 @@
         <v>183</v>
       </c>
       <c r="G41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H41" t="s">
         <v>235</v>
@@ -2234,7 +2231,7 @@
         <v>184</v>
       </c>
       <c r="G42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H42" t="s">
         <v>235</v>
@@ -2286,7 +2283,7 @@
         <v>185</v>
       </c>
       <c r="G44" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H44" t="s">
         <v>235</v>
@@ -2364,7 +2361,7 @@
         <v>55</v>
       </c>
       <c r="G47" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H47" t="s">
         <v>235</v>
@@ -2390,7 +2387,7 @@
         <v>56</v>
       </c>
       <c r="G48" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H48" t="s">
         <v>235</v>
@@ -2598,7 +2595,7 @@
         <v>190</v>
       </c>
       <c r="G56" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H56" t="s">
         <v>235</v>
@@ -2676,10 +2673,10 @@
         <v>193</v>
       </c>
       <c r="G59" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H59" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2702,7 +2699,7 @@
         <v>68</v>
       </c>
       <c r="G60" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H60" t="s">
         <v>235</v>
@@ -2728,7 +2725,7 @@
         <v>69</v>
       </c>
       <c r="G61" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H61" t="s">
         <v>235</v>
@@ -2780,10 +2777,10 @@
         <v>71</v>
       </c>
       <c r="G63" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H63" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2806,7 +2803,7 @@
         <v>194</v>
       </c>
       <c r="G64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H64" t="s">
         <v>235</v>
@@ -2832,7 +2829,7 @@
         <v>195</v>
       </c>
       <c r="G65" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H65" t="s">
         <v>235</v>
@@ -2858,7 +2855,7 @@
         <v>195</v>
       </c>
       <c r="G66" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H66" t="s">
         <v>235</v>
@@ -2884,7 +2881,7 @@
         <v>196</v>
       </c>
       <c r="G67" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H67" t="s">
         <v>235</v>
@@ -2936,7 +2933,7 @@
         <v>198</v>
       </c>
       <c r="G69" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H69" t="s">
         <v>235</v>
@@ -2988,7 +2985,7 @@
         <v>199</v>
       </c>
       <c r="G71" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H71" t="s">
         <v>235</v>
@@ -3014,7 +3011,7 @@
         <v>80</v>
       </c>
       <c r="G72" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H72" t="s">
         <v>235</v>
@@ -3040,7 +3037,7 @@
         <v>81</v>
       </c>
       <c r="G73" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H73" t="s">
         <v>235</v>
@@ -3066,7 +3063,7 @@
         <v>200</v>
       </c>
       <c r="G74" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H74" t="s">
         <v>235</v>
@@ -3092,7 +3089,7 @@
         <v>201</v>
       </c>
       <c r="G75" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H75" t="s">
         <v>235</v>
@@ -3248,7 +3245,7 @@
         <v>206</v>
       </c>
       <c r="G81" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H81" t="s">
         <v>235</v>
@@ -3274,7 +3271,7 @@
         <v>207</v>
       </c>
       <c r="G82" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H82" t="s">
         <v>235</v>
@@ -3326,7 +3323,7 @@
         <v>209</v>
       </c>
       <c r="G84" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H84" t="s">
         <v>235</v>
@@ -3378,10 +3375,10 @@
         <v>211</v>
       </c>
       <c r="G86" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H86" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3404,7 +3401,7 @@
         <v>212</v>
       </c>
       <c r="G87" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H87" t="s">
         <v>235</v>
@@ -3430,7 +3427,7 @@
         <v>213</v>
       </c>
       <c r="G88" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H88" t="s">
         <v>235</v>
@@ -3456,7 +3453,7 @@
         <v>214</v>
       </c>
       <c r="G89" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H89" t="s">
         <v>235</v>
@@ -3534,7 +3531,7 @@
         <v>217</v>
       </c>
       <c r="G92" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H92" t="s">
         <v>235</v>
@@ -3586,7 +3583,7 @@
         <v>187</v>
       </c>
       <c r="G94" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H94" t="s">
         <v>235</v>
@@ -3664,7 +3661,7 @@
         <v>220</v>
       </c>
       <c r="G97" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H97" t="s">
         <v>235</v>
@@ -3716,7 +3713,7 @@
         <v>107</v>
       </c>
       <c r="G99" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H99" t="s">
         <v>235</v>
